--- a/PLP Documents/Review/Code Review/Peer Review/Defect Tracking Sheet/Code_Defect_Tracking.xlsx
+++ b/PLP Documents/Review/Code Review/Peer Review/Defect Tracking Sheet/Code_Defect_Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rjt\PLP\PLP Documents\Review\Code Review\Peer Review\Defect Tracking Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gshree\Desktop\PLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,16 +26,16 @@
     <definedName name="BA">#REF!</definedName>
     <definedName name="Causal_Code">[1]Causes!$B$2:$B$7</definedName>
     <definedName name="Defect_Types">[2]DefectTypes!$B$2:$B$9</definedName>
-    <definedName name="defectcategory">'Defect Tracking Sheet'!$AC$3:$AC$5</definedName>
-    <definedName name="defectpriority">'Defect Tracking Sheet'!$AE$4:$AE$4</definedName>
-    <definedName name="Defectseverity">'Defect Tracking Sheet'!$AD$4:$AD$5</definedName>
-    <definedName name="defectstat">'Defect Tracking Sheet'!$AB$1:$AB$5</definedName>
-    <definedName name="defectstatus">'Defect Tracking Sheet'!$AB$1:$AB$4</definedName>
-    <definedName name="environment">'Defect Tracking Sheet'!$AF$3:$AF$4</definedName>
+    <definedName name="defectcategory">'Defect Tracking Sheet'!$AB$3:$AB$5</definedName>
+    <definedName name="defectpriority">'Defect Tracking Sheet'!$AD$4:$AD$4</definedName>
+    <definedName name="Defectseverity">'Defect Tracking Sheet'!$AC$4:$AC$5</definedName>
+    <definedName name="defectstat">'Defect Tracking Sheet'!$AA$1:$AA$5</definedName>
+    <definedName name="defectstatus">'Defect Tracking Sheet'!$AA$1:$AA$4</definedName>
+    <definedName name="environment">'Defect Tracking Sheet'!$AE$3:$AE$4</definedName>
     <definedName name="priority">'[3]Development Phase Query'!#REF!</definedName>
     <definedName name="RepBy_AssignTo">#REF!</definedName>
-    <definedName name="reviewtype">'Defect Tracking Sheet'!$AA$4:$AA$5</definedName>
-    <definedName name="status">'Defect Tracking Sheet'!$AB$4:$AB$5</definedName>
+    <definedName name="reviewtype">'Defect Tracking Sheet'!$Z$4:$Z$5</definedName>
+    <definedName name="status">'Defect Tracking Sheet'!$AA$4:$AA$5</definedName>
     <definedName name="User">#REF!</definedName>
     <definedName name="ValidCat">#REF!</definedName>
     <definedName name="ValidDefectClass">#REF!</definedName>
@@ -194,35 +194,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mention the name of the browser the defect was found in.</t>
+Mention the environment in which the defect was found.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alphy Chenganiyadan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mention the environment in which the defect was found.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
+    <comment ref="G3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="H3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,6 +229,30 @@
           </rPr>
           <t xml:space="preserve">Prioritize the defect 
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alphy Chenganiyadan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Release # in which the defect was detected.</t>
         </r>
       </text>
     </comment>
@@ -276,7 +276,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter the Release # in which the defect was detected.</t>
+Enter the Build # in which the defect was detected.</t>
         </r>
       </text>
     </comment>
@@ -300,7 +300,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter the Build # in which the defect was detected.</t>
+Mention the date the defect was reported</t>
         </r>
       </text>
     </comment>
@@ -324,7 +324,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mention the date the defect was reported</t>
+Name of the person who reported the defect.</t>
         </r>
       </text>
     </comment>
@@ -348,35 +348,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Name of the person who reported the defect.</t>
+Name of the person the defect is assigned to.</t>
         </r>
       </text>
     </comment>
     <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alphy Chenganiyadan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Name of the person the defect is assigned to.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -437,6 +413,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alphy Chenganiyadan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mention the Test Case No that the defect was found while testing  </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -457,7 +457,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mention the Test Case No that the defect was found while testing  </t>
+Name of the person who fixed the defect.</t>
         </r>
       </text>
     </comment>
@@ -481,7 +481,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Name of the person who fixed the defect.</t>
+Mention the date the defect was Fixed</t>
         </r>
       </text>
     </comment>
@@ -505,7 +505,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mention the date the defect was Fixed</t>
+Mention the date the defect was verified</t>
         </r>
       </text>
     </comment>
@@ -529,7 +529,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mention the date the defect was verified</t>
+Name of the person who will be verifying whether the defect has got fixed after the defect has being worked upon</t>
         </r>
       </text>
     </comment>
@@ -553,7 +553,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Name of the person who will be verifying whether the defect has got fixed after the defect has being worked upon</t>
+Enter the Release # in which the defect  was available for verification</t>
         </r>
       </text>
     </comment>
@@ -577,7 +577,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter the Release # in which the defect  was available for verification</t>
+Enter the Build # in which the defect  was available for verification</t>
         </r>
       </text>
     </comment>
@@ -601,35 +601,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter the Build # in which the defect  was available for verification</t>
+Attach the proofs showing the defect-screenshots,temp files,etc</t>
         </r>
       </text>
     </comment>
     <comment ref="X3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alphy Chenganiyadan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Attach the proofs showing the defect-screenshots,temp files,etc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>Status</t>
   </si>
@@ -768,9 +744,6 @@
     <t>Defect Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Detected in Browser </t>
-  </si>
-  <si>
     <t>Fixed By</t>
   </si>
   <si>
@@ -858,59 +831,75 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>13/03/2017</t>
-  </si>
-  <si>
     <t>Airline Reservation System</t>
   </si>
   <si>
     <t>Group 1</t>
   </si>
   <si>
-    <t>Insert Flight Information Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous date is also accepted. </t>
-  </si>
-  <si>
-    <t>The Departure city and Arrival city must not be same.</t>
-  </si>
-  <si>
-    <t>Ritika Mishra</t>
-  </si>
-  <si>
-    <t>Rajat Bhutani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rajat.aggarwal@capgemini.com
-rabina.chand@capgemini.com
-rajat.bhutani @capgemini.com
-ritika.a.mishra@capgemini.com
-farah.jamal@capgemini.com
-priya.b.kaushik@capgemini.com
-jeeveswar.medavaram@capgemini.com
-</t>
-  </si>
-  <si>
-    <t>Rajat Aggarwal</t>
-  </si>
-  <si>
-    <t>The Date inserted should be an upcoming date and upto 2 months</t>
-  </si>
-  <si>
-    <t>Depatrure City and Arrival City can be same</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
-    <t>ACT</t>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Expense Management System</t>
+  </si>
+  <si>
+    <t>Gyan Shree</t>
+  </si>
+  <si>
+    <t>Ranu Singhal</t>
+  </si>
+  <si>
+    <t>ranu.singhal@capgemini.com
+ishani.basu@capgemini.com
+ram-gopal.padala@capgemini.com
+meghana.patil@capgemini.com
+mahitha.pochiraju@capgemini.com
+kartik.kashid@capgemini.com
+swati.e.mishra@capgemini.com
+gyan.shree@capgemini.com
+b-d.maneesha@capgemini.com</t>
+  </si>
+  <si>
+    <t>Update Project Code Module</t>
+  </si>
+  <si>
+    <t>Validation is missing in updation of Project Code</t>
+  </si>
+  <si>
+    <t>The fields which needs to be updated doesn't have any validation so that values in correct format gets inserted</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>Comment Section of deleteProjectCodeById</t>
+  </si>
+  <si>
+    <t>Return Type is missing</t>
+  </si>
+  <si>
+    <t>Need to mention return type as void</t>
+  </si>
+  <si>
+    <t>D_03</t>
+  </si>
+  <si>
+    <t>Ishani Basu</t>
+  </si>
+  <si>
+    <t>Meghana Patil</t>
+  </si>
+  <si>
+    <t>Comment Section in service layer</t>
+  </si>
+  <si>
+    <t>Author should be name</t>
+  </si>
+  <si>
+    <t>Need to mention name of the author</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1987,7 @@
   <dimension ref="A4:V18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -2024,7 +2013,7 @@
     </row>
     <row r="6" spans="2:4" ht="17.25" customHeight="1">
       <c r="B6" s="45" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17.25" customHeight="1">
@@ -2032,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="48"/>
     </row>
@@ -2063,10 +2052,12 @@
     </row>
     <row r="12" spans="2:4" ht="14.25">
       <c r="B12" s="40" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="19">
+        <v>43346</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="17.25" customHeight="1">
       <c r="B13" s="18" t="s">
@@ -2081,10 +2072,12 @@
     </row>
     <row r="14" spans="2:4" ht="14.25">
       <c r="B14" s="40" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="19">
+        <v>43347</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="17.25" customHeight="1">
       <c r="B15" s="18" t="s">
@@ -2099,7 +2092,7 @@
     </row>
     <row r="16" spans="2:4" ht="14.25">
       <c r="B16" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="19"/>
@@ -2109,7 +2102,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" s="21"/>
     </row>
@@ -2140,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2153,61 +2146,59 @@
     <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="27" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="1"/>
-    <col min="28" max="31" width="9.140625" style="37"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="1"/>
+    <col min="27" max="30" width="9.140625" style="37"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="11"/>
-      <c r="AB1" s="37" t="s">
+      <c r="I1" s="11"/>
+      <c r="AA1" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" customFormat="1" ht="13.5" thickBot="1">
+      <c r="AA2" s="38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" customFormat="1" ht="13.5" thickBot="1">
-      <c r="AB2" s="38" t="s">
-        <v>52</v>
-      </c>
+      <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39"/>
-    </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" ht="39" thickBot="1">
+      <c r="AE2" s="39"/>
+    </row>
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="39" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -2224,277 +2215,342 @@
         <v>35</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>37</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC3" s="36"/>
       <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="57.75" customHeight="1">
+      <c r="AE3" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="66.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="43">
+        <v>43168</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="43">
+        <v>43168</v>
+      </c>
+      <c r="S4" s="43">
+        <v>43199</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="8">
         <v>1</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="V4" s="8">
         <v>1</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="63" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="8">
         <v>1</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE4" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="45">
-      <c r="A5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="43">
+        <v>43168</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="43">
+        <v>43168</v>
+      </c>
+      <c r="S5" s="43">
+        <v>43199</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="8">
         <v>1</v>
-      </c>
-      <c r="L5" s="43">
-        <v>43042</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="43">
-        <v>43042</v>
-      </c>
-      <c r="T5" s="43">
-        <v>43042</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="V5" s="8">
         <v>1</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="62.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="X5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" s="37" t="s">
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="43">
+        <v>43168</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD5" s="37" t="s">
-        <v>60</v>
+      <c r="P6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="43">
+        <v>43168</v>
+      </c>
+      <c r="S6" s="43">
+        <v>43199</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6">
       <formula1>defectcategory</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6">
       <formula1>Defectseverity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H6">
       <formula1>defectpriority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O6">
       <formula1>reviewtype</formula1>
     </dataValidation>
   </dataValidations>
@@ -2658,14 +2714,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Demos</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2839,7 +2888,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Demos</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2852,18 +2908,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257803AA-E8DC-4B99-BE16-A2C66D7E3233}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFA1F94-87A9-4300-BC74-3C81F405F373}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2888,9 +2935,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFA1F94-87A9-4300-BC74-3C81F405F373}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257803AA-E8DC-4B99-BE16-A2C66D7E3233}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PLP Documents/Review/Code Review/Peer Review/Defect Tracking Sheet/Code_Defect_Tracking.xlsx
+++ b/PLP Documents/Review/Code Review/Peer Review/Defect Tracking Sheet/Code_Defect_Tracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gshree\Desktop\PLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExpenseManagmentSystem\PLP Documents\Review\Code Review\Peer Review\Defect Tracking Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="8" r:id="rId1"/>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -2135,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -2714,10 +2714,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Demos</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -2887,35 +2903,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Demos</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFA1F94-87A9-4300-BC74-3C81F405F373}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B7FC17-EBEF-4DA9-8B6A-7888BA2876BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257803AA-E8DC-4B99-BE16-A2C66D7E3233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDBF89D9-C125-43F5-92C8-A7A726BA8807}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2934,27 +2951,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257803AA-E8DC-4B99-BE16-A2C66D7E3233}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFA1F94-87A9-4300-BC74-3C81F405F373}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B7FC17-EBEF-4DA9-8B6A-7888BA2876BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>